--- a/public/data/lime/lime_table_tanzania.xlsx
+++ b/public/data/lime/lime_table_tanzania.xlsx
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>0.59</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1851,16 +1851,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.79</v>
+        <v>0.29</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1880,13 +1880,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>4.65</v>
+        <v>3.29</v>
       </c>
       <c r="E4" t="n">
-        <v>2.81</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>2.24</v>
       </c>
       <c r="K4" t="n">
-        <v>1.47</v>
+        <v>0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.97</v>
+        <v>0.46</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.15</v>
+        <v>0.46</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.41</v>
+        <v>0.9</v>
       </c>
       <c r="K7" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2068,16 +2068,16 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>3.9</v>
+        <v>3.14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.51</v>
+        <v>1.18</v>
       </c>
       <c r="F8" t="n">
-        <v>1.07</v>
+        <v>0.22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.71</v>
+        <v>1.22</v>
       </c>
       <c r="K8" t="n">
-        <v>0.62</v>
+        <v>0.26</v>
       </c>
       <c r="L8" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="M8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2115,13 +2115,13 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>4.44</v>
+        <v>3.79</v>
       </c>
       <c r="E9" t="n">
-        <v>2.95</v>
+        <v>1.55</v>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2133,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
       <c r="L9" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2180,16 +2180,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.59</v>
+        <v>0.84</v>
       </c>
       <c r="K10" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2227,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.81</v>
+        <v>0.77</v>
       </c>
       <c r="K11" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2256,34 +2256,34 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="E12" t="n">
-        <v>1.65</v>
+        <v>0.57</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.2</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.65</v>
-      </c>
       <c r="L12" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.35</v>
+        <v>0.32</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>102</v>
       </c>
       <c r="D16" t="n">
-        <v>2.76</v>
+        <v>2.03</v>
       </c>
       <c r="E16" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.65</v>
+        <v>0.88</v>
       </c>
       <c r="K16" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2509,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.84</v>
+        <v>0.66</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>104</v>
       </c>
       <c r="D18" t="n">
-        <v>2.29</v>
+        <v>0.83</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2556,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.21</v>
+        <v>0.95</v>
       </c>
       <c r="K18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2697,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="L21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2744,16 +2744,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>1.29</v>
       </c>
       <c r="K22" t="n">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.6</v>
+        <v>1.38</v>
       </c>
       <c r="K23" t="n">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.92</v>
+        <v>0.29</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="K25" t="n">
-        <v>0.76</v>
+        <v>0.04</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2932,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.87</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2979,16 +2979,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.87</v>
+        <v>0.62</v>
       </c>
       <c r="K27" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>116</v>
       </c>
       <c r="D28" t="n">
-        <v>2.19</v>
+        <v>1.77</v>
       </c>
       <c r="E28" t="n">
-        <v>0.69</v>
+        <v>0.06</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3055,16 +3055,16 @@
         <v>118</v>
       </c>
       <c r="D29" t="n">
-        <v>4.4</v>
+        <v>4.02</v>
       </c>
       <c r="E29" t="n">
-        <v>3.42</v>
+        <v>2.62</v>
       </c>
       <c r="F29" t="n">
-        <v>2.3</v>
+        <v>1.12</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.07</v>
       </c>
       <c r="K29" t="n">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="L29" t="n">
-        <v>0.72</v>
+        <v>0.19</v>
       </c>
       <c r="M29" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3102,13 +3102,13 @@
         <v>119</v>
       </c>
       <c r="D30" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="E30" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="F30" t="n">
-        <v>1.64</v>
+        <v>0.76</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="K30" t="n">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
       <c r="L30" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3149,16 +3149,16 @@
         <v>117</v>
       </c>
       <c r="D31" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="E31" t="n">
-        <v>1.2</v>
+        <v>0.68</v>
       </c>
       <c r="F31" t="n">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.84</v>
+        <v>1.39</v>
       </c>
       <c r="K31" t="n">
-        <v>0.84</v>
+        <v>0.34</v>
       </c>
       <c r="L31" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="M31" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>90</v>
       </c>
       <c r="D32" t="n">
-        <v>4.46</v>
+        <v>3.28</v>
       </c>
       <c r="E32" t="n">
-        <v>2.69</v>
+        <v>0.51</v>
       </c>
       <c r="F32" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.3</v>
+        <v>3.14</v>
       </c>
       <c r="K32" t="n">
-        <v>2.71</v>
+        <v>0.13</v>
       </c>
       <c r="L32" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>120</v>
       </c>
       <c r="D33" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="E33" t="n">
-        <v>1.05</v>
+        <v>0.58</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="G33" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3261,16 +3261,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.34</v>
+        <v>0.81</v>
       </c>
       <c r="K33" t="n">
-        <v>0.39</v>
+        <v>0.07</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3290,16 +3290,16 @@
         <v>121</v>
       </c>
       <c r="D34" t="n">
-        <v>1.73</v>
+        <v>1.16</v>
       </c>
       <c r="E34" t="n">
-        <v>0.57</v>
+        <v>0.15</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="G34" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="K34" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3355,16 +3355,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.18</v>
+        <v>0.67</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>0.48</v>
       </c>
       <c r="K36" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="E37" t="n">
-        <v>1.58</v>
+        <v>0.8</v>
       </c>
       <c r="F37" t="n">
-        <v>0.54</v>
+        <v>0.07</v>
       </c>
       <c r="G37" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3449,16 +3449,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="K37" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>126</v>
       </c>
       <c r="D38" t="n">
-        <v>2.58</v>
+        <v>2.09</v>
       </c>
       <c r="E38" t="n">
-        <v>1.25</v>
+        <v>0.43</v>
       </c>
       <c r="F38" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.51</v>
+        <v>0.98</v>
       </c>
       <c r="K38" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="L38" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3525,16 +3525,16 @@
         <v>127</v>
       </c>
       <c r="D39" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="E39" t="n">
-        <v>0.91</v>
+        <v>0.37</v>
       </c>
       <c r="F39" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="G39" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3543,16 +3543,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3572,13 +3572,13 @@
         <v>129</v>
       </c>
       <c r="D40" t="n">
-        <v>4.06</v>
+        <v>3.73</v>
       </c>
       <c r="E40" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="F40" t="n">
-        <v>2.05</v>
+        <v>1.07</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="K40" t="n">
-        <v>1.66</v>
+        <v>0.89</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="M40" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         <v>130</v>
       </c>
       <c r="D41" t="n">
-        <v>4.74</v>
+        <v>4.17</v>
       </c>
       <c r="E41" t="n">
-        <v>3.43</v>
+        <v>2.26</v>
       </c>
       <c r="F41" t="n">
-        <v>1.95</v>
+        <v>0.75</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3637,16 +3637,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.06</v>
+        <v>2.28</v>
       </c>
       <c r="K41" t="n">
-        <v>1.43</v>
+        <v>0.53</v>
       </c>
       <c r="L41" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="M41" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>131</v>
       </c>
       <c r="D42" t="n">
-        <v>5.9</v>
+        <v>5.48</v>
       </c>
       <c r="E42" t="n">
-        <v>4.71</v>
+        <v>3.8</v>
       </c>
       <c r="F42" t="n">
-        <v>3.32</v>
+        <v>2.05</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3684,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.38</v>
+        <v>3.73</v>
       </c>
       <c r="K42" t="n">
-        <v>2.6</v>
+        <v>1.24</v>
       </c>
       <c r="L42" t="n">
-        <v>0.58</v>
+        <v>0.08</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3713,16 +3713,16 @@
         <v>132</v>
       </c>
       <c r="D43" t="n">
-        <v>3.52</v>
+        <v>2.83</v>
       </c>
       <c r="E43" t="n">
-        <v>1.75</v>
+        <v>0.85</v>
       </c>
       <c r="F43" t="n">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="G43" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3731,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.42</v>
+        <v>1.73</v>
       </c>
       <c r="K43" t="n">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
       <c r="L43" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3760,16 +3760,16 @@
         <v>133</v>
       </c>
       <c r="D44" t="n">
-        <v>3.53</v>
+        <v>2.74</v>
       </c>
       <c r="E44" t="n">
-        <v>1.53</v>
+        <v>0.65</v>
       </c>
       <c r="F44" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="G44" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="K44" t="n">
-        <v>1.14</v>
+        <v>0.22</v>
       </c>
       <c r="L44" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>90</v>
       </c>
       <c r="D45" t="n">
-        <v>4.53</v>
+        <v>3.54</v>
       </c>
       <c r="E45" t="n">
-        <v>3.07</v>
+        <v>1.19</v>
       </c>
       <c r="F45" t="n">
-        <v>1.41</v>
+        <v>0.1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.63</v>
+        <v>2.55</v>
       </c>
       <c r="K45" t="n">
-        <v>1.92</v>
+        <v>0.31</v>
       </c>
       <c r="L45" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>134</v>
       </c>
       <c r="D46" t="n">
-        <v>4.4</v>
+        <v>3.57</v>
       </c>
       <c r="E46" t="n">
-        <v>2.78</v>
+        <v>1.3</v>
       </c>
       <c r="F46" t="n">
-        <v>1.12</v>
+        <v>0.23</v>
       </c>
       <c r="G46" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.07</v>
+        <v>3.09</v>
       </c>
       <c r="K46" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="L46" t="n">
-        <v>0.84</v>
+        <v>0.09</v>
       </c>
       <c r="M46" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3901,13 +3901,13 @@
         <v>135</v>
       </c>
       <c r="D47" t="n">
-        <v>4.95</v>
+        <v>4.47</v>
       </c>
       <c r="E47" t="n">
-        <v>3.77</v>
+        <v>2.76</v>
       </c>
       <c r="F47" t="n">
-        <v>2.39</v>
+        <v>1.1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3919,16 +3919,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.74</v>
+        <v>2.28</v>
       </c>
       <c r="K47" t="n">
-        <v>1.57</v>
+        <v>0.81</v>
       </c>
       <c r="L47" t="n">
-        <v>0.56</v>
+        <v>0.13</v>
       </c>
       <c r="M47" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>136</v>
       </c>
       <c r="D48" t="n">
-        <v>2.57</v>
+        <v>1.62</v>
       </c>
       <c r="E48" t="n">
-        <v>1.05</v>
+        <v>0.62</v>
       </c>
       <c r="F48" t="n">
-        <v>0.56</v>
+        <v>0.09</v>
       </c>
       <c r="G48" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3966,16 +3966,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.84</v>
+        <v>2.24</v>
       </c>
       <c r="K48" t="n">
-        <v>1.24</v>
+        <v>0.48</v>
       </c>
       <c r="L48" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="M48" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3995,31 +3995,31 @@
         <v>138</v>
       </c>
       <c r="D49" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>4.02</v>
       </c>
-      <c r="E49" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.71</v>
-      </c>
       <c r="K49" t="n">
-        <v>2.81</v>
+        <v>1.54</v>
       </c>
       <c r="L49" t="n">
-        <v>0.92</v>
+        <v>0.14</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         <v>139</v>
       </c>
       <c r="D50" t="n">
-        <v>3.81</v>
+        <v>3.21</v>
       </c>
       <c r="E50" t="n">
-        <v>1.86</v>
+        <v>0.78</v>
       </c>
       <c r="F50" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4060,16 +4060,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.43</v>
+        <v>2.71</v>
       </c>
       <c r="K50" t="n">
-        <v>1.43</v>
+        <v>0.57</v>
       </c>
       <c r="L50" t="n">
-        <v>0.34</v>
+        <v>0.07</v>
       </c>
       <c r="M50" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4089,10 +4089,10 @@
         <v>141</v>
       </c>
       <c r="D51" t="n">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
       <c r="E51" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.78</v>
+        <v>0.97</v>
       </c>
       <c r="K51" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4136,13 +4136,13 @@
         <v>142</v>
       </c>
       <c r="D52" t="n">
-        <v>3.19</v>
+        <v>2.41</v>
       </c>
       <c r="E52" t="n">
-        <v>1.35</v>
+        <v>0.23</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -4154,16 +4154,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.32</v>
+        <v>2.55</v>
       </c>
       <c r="K52" t="n">
-        <v>1.51</v>
+        <v>0.47</v>
       </c>
       <c r="L52" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -4201,16 +4201,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.77</v>
+        <v>0.44</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4248,16 +4248,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.87</v>
+        <v>2.67</v>
       </c>
       <c r="K54" t="n">
-        <v>1.77</v>
+        <v>0.44</v>
       </c>
       <c r="L54" t="n">
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="M54" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -4277,34 +4277,34 @@
         <v>146</v>
       </c>
       <c r="D55" t="n">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="E55" t="n">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="F55" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>1.43</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.93</v>
-      </c>
       <c r="K55" t="n">
-        <v>0.77</v>
+        <v>0.3</v>
       </c>
       <c r="L55" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="M55" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4324,13 +4324,13 @@
         <v>147</v>
       </c>
       <c r="D56" t="n">
-        <v>5.76</v>
+        <v>5.29</v>
       </c>
       <c r="E56" t="n">
-        <v>4.41</v>
+        <v>3.42</v>
       </c>
       <c r="F56" t="n">
-        <v>2.86</v>
+        <v>1.39</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -4342,16 +4342,16 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.65</v>
+        <v>4.12</v>
       </c>
       <c r="K56" t="n">
-        <v>3.25</v>
+        <v>2.27</v>
       </c>
       <c r="L56" t="n">
-        <v>1.84</v>
+        <v>0.74</v>
       </c>
       <c r="M56" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -4389,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="K57" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4418,13 +4418,13 @@
         <v>150</v>
       </c>
       <c r="D58" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="E58" t="n">
-        <v>1.96</v>
+        <v>1.35</v>
       </c>
       <c r="F58" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4436,16 +4436,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="K58" t="n">
-        <v>1.41</v>
+        <v>0.81</v>
       </c>
       <c r="L58" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4465,13 +4465,13 @@
         <v>151</v>
       </c>
       <c r="D59" t="n">
-        <v>3.65</v>
+        <v>3.24</v>
       </c>
       <c r="E59" t="n">
-        <v>2.24</v>
+        <v>1.37</v>
       </c>
       <c r="F59" t="n">
-        <v>0.69</v>
+        <v>0.07</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.95</v>
+        <v>2.53</v>
       </c>
       <c r="K59" t="n">
-        <v>1.66</v>
+        <v>0.94</v>
       </c>
       <c r="L59" t="n">
-        <v>0.58</v>
+        <v>0.07</v>
       </c>
       <c r="M59" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4512,13 +4512,13 @@
         <v>152</v>
       </c>
       <c r="D60" t="n">
-        <v>4.66</v>
+        <v>4.32</v>
       </c>
       <c r="E60" t="n">
-        <v>3.89</v>
+        <v>3.16</v>
       </c>
       <c r="F60" t="n">
-        <v>2.99</v>
+        <v>1.82</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -4530,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.36</v>
+        <v>2.9</v>
       </c>
       <c r="K60" t="n">
-        <v>2.37</v>
+        <v>1.6</v>
       </c>
       <c r="L60" t="n">
-        <v>1.42</v>
+        <v>0.61</v>
       </c>
       <c r="M60" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>153</v>
       </c>
       <c r="D61" t="n">
-        <v>3.34</v>
+        <v>3.02</v>
       </c>
       <c r="E61" t="n">
-        <v>2.48</v>
+        <v>1.81</v>
       </c>
       <c r="F61" t="n">
-        <v>1.54</v>
+        <v>0.74</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -4577,16 +4577,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="K61" t="n">
-        <v>1.41</v>
+        <v>0.73</v>
       </c>
       <c r="L61" t="n">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
       <c r="M61" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4606,34 +4606,34 @@
         <v>154</v>
       </c>
       <c r="D62" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="E62" t="n">
-        <v>3.56</v>
+        <v>2.7</v>
       </c>
       <c r="F62" t="n">
-        <v>2.27</v>
+        <v>1.03</v>
       </c>
       <c r="G62" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.95</v>
+        <v>2.36</v>
       </c>
       <c r="K62" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="L62" t="n">
-        <v>0.85</v>
+        <v>0.22</v>
       </c>
       <c r="M62" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4653,13 +4653,13 @@
         <v>155</v>
       </c>
       <c r="D63" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="E63" t="n">
-        <v>1.53</v>
+        <v>0.83</v>
       </c>
       <c r="F63" t="n">
-        <v>0.54</v>
+        <v>0.09</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -4671,16 +4671,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.37</v>
+        <v>1.96</v>
       </c>
       <c r="K63" t="n">
-        <v>1.37</v>
+        <v>0.65</v>
       </c>
       <c r="L63" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="M63" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4700,13 +4700,13 @@
         <v>156</v>
       </c>
       <c r="D64" t="n">
-        <v>2.9</v>
+        <v>1.49</v>
       </c>
       <c r="E64" t="n">
-        <v>1.46</v>
+        <v>0.06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -4718,16 +4718,16 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.72</v>
+        <v>0.88</v>
       </c>
       <c r="K64" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4747,13 +4747,13 @@
         <v>145</v>
       </c>
       <c r="D65" t="n">
-        <v>4.67</v>
+        <v>3.23</v>
       </c>
       <c r="E65" t="n">
-        <v>2.87</v>
+        <v>0.44</v>
       </c>
       <c r="F65" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -4765,19 +4765,19 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.63</v>
+        <v>2.38</v>
       </c>
       <c r="K65" t="n">
-        <v>1.72</v>
+        <v>0.22</v>
       </c>
       <c r="L65" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="M65" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -4794,13 +4794,13 @@
         <v>157</v>
       </c>
       <c r="D66" t="n">
-        <v>4.23</v>
+        <v>3.75</v>
       </c>
       <c r="E66" t="n">
-        <v>3.01</v>
+        <v>2.01</v>
       </c>
       <c r="F66" t="n">
-        <v>1.67</v>
+        <v>0.54</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -4812,16 +4812,16 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.72</v>
+        <v>3.11</v>
       </c>
       <c r="K66" t="n">
-        <v>2.33</v>
+        <v>1.28</v>
       </c>
       <c r="L66" t="n">
-        <v>0.99</v>
+        <v>0.18</v>
       </c>
       <c r="M66" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4859,16 +4859,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.61</v>
+        <v>0.7</v>
       </c>
       <c r="K67" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4888,16 +4888,16 @@
         <v>160</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07</v>
+        <v>0.55</v>
       </c>
       <c r="E68" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4906,16 +4906,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.29</v>
+        <v>0.7</v>
       </c>
       <c r="K68" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.32</v>
+        <v>0.05</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4982,13 +4982,13 @@
         <v>162</v>
       </c>
       <c r="D70" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="E70" t="n">
-        <v>1.42</v>
+        <v>0.54</v>
       </c>
       <c r="F70" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -5000,16 +5000,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="K70" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -5029,13 +5029,13 @@
         <v>163</v>
       </c>
       <c r="D71" t="n">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="E71" t="n">
-        <v>1.05</v>
+        <v>0.19</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="K71" t="n">
-        <v>0.53</v>
+        <v>0.04</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -5076,13 +5076,13 @@
         <v>164</v>
       </c>
       <c r="D72" t="n">
-        <v>2.83</v>
+        <v>2.27</v>
       </c>
       <c r="E72" t="n">
-        <v>1.52</v>
+        <v>0.45</v>
       </c>
       <c r="F72" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5094,16 +5094,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.92</v>
+        <v>1.11</v>
       </c>
       <c r="K72" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="L72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.75</v>
+        <v>0.86</v>
       </c>
       <c r="K73" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -5170,13 +5170,13 @@
         <v>167</v>
       </c>
       <c r="D74" t="n">
-        <v>4.01</v>
+        <v>3.45</v>
       </c>
       <c r="E74" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="F74" t="n">
-        <v>0.52</v>
+        <v>0.07</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -5188,16 +5188,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.88</v>
+        <v>2.13</v>
       </c>
       <c r="K74" t="n">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
       <c r="L74" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -5217,13 +5217,13 @@
         <v>168</v>
       </c>
       <c r="D75" t="n">
-        <v>4.24</v>
+        <v>3.61</v>
       </c>
       <c r="E75" t="n">
-        <v>2.52</v>
+        <v>1.27</v>
       </c>
       <c r="F75" t="n">
-        <v>0.69</v>
+        <v>0.07</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5235,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>5.2</v>
+        <v>4.43</v>
       </c>
       <c r="K75" t="n">
-        <v>3.13</v>
+        <v>1.67</v>
       </c>
       <c r="L75" t="n">
-        <v>0.98</v>
+        <v>0.08</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -5264,16 +5264,16 @@
         <v>170</v>
       </c>
       <c r="D76" t="n">
-        <v>2.59</v>
+        <v>1.69</v>
       </c>
       <c r="E76" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="F76" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5282,16 +5282,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="K76" t="n">
-        <v>0.56</v>
+        <v>0.05</v>
       </c>
       <c r="L76" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>171</v>
       </c>
       <c r="D77" t="n">
-        <v>2.97</v>
+        <v>1.65</v>
       </c>
       <c r="E77" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -5329,16 +5329,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.95</v>
+        <v>0.82</v>
       </c>
       <c r="K77" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5358,37 +5358,37 @@
         <v>173</v>
       </c>
       <c r="D78" t="n">
-        <v>2.29</v>
+        <v>1.41</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
       <c r="F78" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.38</v>
+        <v>0.63</v>
       </c>
       <c r="K78" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -5405,16 +5405,16 @@
         <v>174</v>
       </c>
       <c r="D79" t="n">
-        <v>2.67</v>
+        <v>2.23</v>
       </c>
       <c r="E79" t="n">
-        <v>1.47</v>
+        <v>0.77</v>
       </c>
       <c r="F79" t="n">
-        <v>0.55</v>
+        <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5423,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.21</v>
+        <v>0.63</v>
       </c>
       <c r="K79" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="L79" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5470,19 +5470,19 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.64</v>
+        <v>0.85</v>
       </c>
       <c r="K80" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -5517,16 +5517,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.99</v>
+        <v>0.52</v>
       </c>
       <c r="K81" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5593,16 +5593,16 @@
         <v>178</v>
       </c>
       <c r="D83" t="n">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="E83" t="n">
-        <v>2.19</v>
+        <v>1.29</v>
       </c>
       <c r="F83" t="n">
-        <v>0.97</v>
+        <v>0.02</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5611,16 +5611,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.16</v>
+        <v>0.59</v>
       </c>
       <c r="K83" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="L83" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>180</v>
       </c>
       <c r="D84" t="n">
-        <v>2.84</v>
+        <v>2.31</v>
       </c>
       <c r="E84" t="n">
-        <v>1.15</v>
+        <v>0.23</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -5658,16 +5658,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5705,16 +5705,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.43</v>
+        <v>0.66</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5752,16 +5752,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.23</v>
+        <v>0.39</v>
       </c>
       <c r="K86" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.92</v>
+        <v>0.18</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -5875,13 +5875,13 @@
         <v>184</v>
       </c>
       <c r="D89" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="E89" t="n">
-        <v>1.14</v>
+        <v>0.32</v>
       </c>
       <c r="F89" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -5893,16 +5893,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.68</v>
+        <v>1.05</v>
       </c>
       <c r="K89" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="L89" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.62</v>
+        <v>0.23</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5987,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="K91" t="n">
-        <v>0.61</v>
+        <v>0.26</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6034,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.41</v>
+        <v>0.95</v>
       </c>
       <c r="K92" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="L92" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -6081,16 +6081,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.78</v>
+        <v>1.24</v>
       </c>
       <c r="K93" t="n">
-        <v>0.61</v>
+        <v>0.03</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6128,16 +6128,16 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.31</v>
+        <v>0.86</v>
       </c>
       <c r="K94" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="L94" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6175,16 +6175,16 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="K95" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -6204,10 +6204,10 @@
         <v>191</v>
       </c>
       <c r="D96" t="n">
-        <v>4.66</v>
+        <v>3.95</v>
       </c>
       <c r="E96" t="n">
-        <v>2.43</v>
+        <v>0.91</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -6222,16 +6222,16 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="K96" t="n">
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -6269,16 +6269,16 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7</v>
+        <v>0.17</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -6298,13 +6298,13 @@
         <v>193</v>
       </c>
       <c r="D98" t="n">
-        <v>3.94</v>
+        <v>3.43</v>
       </c>
       <c r="E98" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="F98" t="n">
-        <v>1.21</v>
+        <v>0.18</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -6316,16 +6316,16 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.47</v>
+        <v>1.83</v>
       </c>
       <c r="K98" t="n">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
       <c r="L98" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="M98" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6345,13 +6345,13 @@
         <v>195</v>
       </c>
       <c r="D99" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="E99" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -6363,16 +6363,16 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="K99" t="n">
-        <v>1.33</v>
+        <v>0.73</v>
       </c>
       <c r="L99" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="M99" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -6392,13 +6392,13 @@
         <v>196</v>
       </c>
       <c r="D100" t="n">
-        <v>3.33</v>
+        <v>2.36</v>
       </c>
       <c r="E100" t="n">
-        <v>1.99</v>
+        <v>0.58</v>
       </c>
       <c r="F100" t="n">
-        <v>0.83</v>
+        <v>0.11</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -6410,16 +6410,16 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>3.57</v>
+        <v>2.72</v>
       </c>
       <c r="K100" t="n">
-        <v>2.03</v>
+        <v>0.85</v>
       </c>
       <c r="L100" t="n">
-        <v>0.87</v>
+        <v>0.17</v>
       </c>
       <c r="M100" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -6439,16 +6439,16 @@
         <v>197</v>
       </c>
       <c r="D101" t="n">
-        <v>2.58</v>
+        <v>2.17</v>
       </c>
       <c r="E101" t="n">
-        <v>1.77</v>
+        <v>1.11</v>
       </c>
       <c r="F101" t="n">
-        <v>1.04</v>
+        <v>0.43</v>
       </c>
       <c r="G101" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6457,16 +6457,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8</v>
+        <v>0.29</v>
       </c>
       <c r="L101" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="M101" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -6486,13 +6486,13 @@
         <v>198</v>
       </c>
       <c r="D102" t="n">
-        <v>3.13</v>
+        <v>2.31</v>
       </c>
       <c r="E102" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="F102" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -6504,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="K102" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="L102" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -6533,10 +6533,10 @@
         <v>199</v>
       </c>
       <c r="D103" t="n">
-        <v>3.1</v>
+        <v>2.18</v>
       </c>
       <c r="E103" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -6551,16 +6551,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.56</v>
+        <v>0.9</v>
       </c>
       <c r="K103" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6580,16 +6580,16 @@
         <v>200</v>
       </c>
       <c r="D104" t="n">
-        <v>3.28</v>
+        <v>2.56</v>
       </c>
       <c r="E104" t="n">
-        <v>1.82</v>
+        <v>0.61</v>
       </c>
       <c r="F104" t="n">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="G104" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6598,16 +6598,16 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="K104" t="n">
-        <v>1.84</v>
+        <v>0.8</v>
       </c>
       <c r="L104" t="n">
-        <v>0.56</v>
+        <v>0.03</v>
       </c>
       <c r="M104" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -6627,13 +6627,13 @@
         <v>202</v>
       </c>
       <c r="D105" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="E105" t="n">
-        <v>1.86</v>
+        <v>0.95</v>
       </c>
       <c r="F105" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -6645,16 +6645,16 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.21</v>
+        <v>2.71</v>
       </c>
       <c r="K105" t="n">
-        <v>1.51</v>
+        <v>0.66</v>
       </c>
       <c r="L105" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -6674,10 +6674,10 @@
         <v>203</v>
       </c>
       <c r="D106" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="E106" t="n">
-        <v>1.1</v>
+        <v>0.03</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -6692,16 +6692,16 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="K106" t="n">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="L106" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -6768,16 +6768,16 @@
         <v>206</v>
       </c>
       <c r="D108" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="E108" t="n">
-        <v>0.57</v>
+        <v>0.07</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6786,16 +6786,16 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="K108" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -6815,16 +6815,16 @@
         <v>207</v>
       </c>
       <c r="D109" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="E109" t="n">
-        <v>1.46</v>
+        <v>0.69</v>
       </c>
       <c r="F109" t="n">
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6833,16 +6833,16 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.01</v>
+        <v>1.41</v>
       </c>
       <c r="K109" t="n">
-        <v>0.74</v>
+        <v>0.19</v>
       </c>
       <c r="L109" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="M109" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -6862,13 +6862,13 @@
         <v>208</v>
       </c>
       <c r="D110" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="E110" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -6880,16 +6880,16 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="K110" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -6909,34 +6909,34 @@
         <v>209</v>
       </c>
       <c r="D111" t="n">
-        <v>1.71</v>
+        <v>1.27</v>
       </c>
       <c r="E111" t="n">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
       <c r="F111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.09</v>
       </c>
-      <c r="G111" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.3</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -6974,16 +6974,16 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="K112" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -7003,34 +7003,34 @@
         <v>211</v>
       </c>
       <c r="D113" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="E113" t="n">
-        <v>0.73</v>
+        <v>0.32</v>
       </c>
       <c r="F113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.15</v>
       </c>
-      <c r="G113" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.46</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -7050,13 +7050,13 @@
         <v>212</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="E114" t="n">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="F114" t="n">
-        <v>1.25</v>
+        <v>0.34</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -7068,16 +7068,16 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="K114" t="n">
-        <v>0.58</v>
+        <v>0.2</v>
       </c>
       <c r="L114" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -7115,16 +7115,16 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.7</v>
+        <v>0.27</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -7162,16 +7162,16 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.84</v>
+        <v>0.43</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -7191,34 +7191,34 @@
         <v>216</v>
       </c>
       <c r="D117" t="n">
-        <v>0.96</v>
+        <v>0.46</v>
       </c>
       <c r="E117" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0.99</v>
+        <v>0.53</v>
       </c>
       <c r="K117" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -7256,16 +7256,16 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.92</v>
+        <v>0.42</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.14</v>
+        <v>0.28</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -7350,16 +7350,16 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.94</v>
+        <v>0.55</v>
       </c>
       <c r="K120" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="L120" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -7379,13 +7379,13 @@
         <v>220</v>
       </c>
       <c r="D121" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="E121" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="F121" t="n">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -7397,16 +7397,16 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="L121" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -7426,34 +7426,34 @@
         <v>222</v>
       </c>
       <c r="D122" t="n">
-        <v>1.35</v>
+        <v>0.96</v>
       </c>
       <c r="E122" t="n">
-        <v>0.54</v>
+        <v>0.19</v>
       </c>
       <c r="F122" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.07</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.35</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -7473,16 +7473,16 @@
         <v>223</v>
       </c>
       <c r="D123" t="n">
-        <v>0.72</v>
+        <v>0.38</v>
       </c>
       <c r="E123" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7491,13 +7491,13 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.69</v>
+        <v>0.33</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="L123" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -7520,16 +7520,16 @@
         <v>224</v>
       </c>
       <c r="D124" t="n">
-        <v>1.58</v>
+        <v>1.07</v>
       </c>
       <c r="E124" t="n">
-        <v>0.63</v>
+        <v>0.1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7538,16 +7538,16 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.14</v>
+        <v>0.6</v>
       </c>
       <c r="K124" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -7567,16 +7567,16 @@
         <v>225</v>
       </c>
       <c r="D125" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="E125" t="n">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="F125" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="G125" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7585,16 +7585,16 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>1.32</v>
+        <v>0.89</v>
       </c>
       <c r="K125" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -7614,16 +7614,16 @@
         <v>226</v>
       </c>
       <c r="D126" t="n">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="E126" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="F126" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7632,16 +7632,16 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.98</v>
+        <v>0.48</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -7661,16 +7661,16 @@
         <v>227</v>
       </c>
       <c r="D127" t="n">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7679,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.99</v>
+        <v>0.35</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -7726,16 +7726,16 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
       <c r="K128" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="L128" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -7773,16 +7773,16 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.58</v>
+        <v>1.19</v>
       </c>
       <c r="K129" t="n">
-        <v>0.71</v>
+        <v>0.03</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>232</v>
       </c>
       <c r="D131" t="n">
-        <v>1.79</v>
+        <v>0.14</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -7867,16 +7867,16 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.02</v>
+        <v>0.32</v>
       </c>
       <c r="K131" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -7896,10 +7896,10 @@
         <v>233</v>
       </c>
       <c r="D132" t="n">
-        <v>2.49</v>
+        <v>1.33</v>
       </c>
       <c r="E132" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -7914,22 +7914,22 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.82</v>
+        <v>1.84</v>
       </c>
       <c r="K132" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -7943,7 +7943,7 @@
         <v>234</v>
       </c>
       <c r="D133" t="n">
-        <v>1.37</v>
+        <v>0.43</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -7961,19 +7961,19 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>3.28</v>
+        <v>2.3</v>
       </c>
       <c r="K133" t="n">
-        <v>1.24</v>
+        <v>0.41</v>
       </c>
       <c r="L133" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="M133" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -7990,37 +7990,37 @@
         <v>235</v>
       </c>
       <c r="D134" t="n">
-        <v>3.95</v>
+        <v>0.91</v>
       </c>
       <c r="E134" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.03</v>
+        <v>1.06</v>
       </c>
       <c r="K134" t="n">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -8037,13 +8037,13 @@
         <v>237</v>
       </c>
       <c r="D135" t="n">
-        <v>4.54</v>
+        <v>4.21</v>
       </c>
       <c r="E135" t="n">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
       <c r="F135" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.53</v>
+        <v>1.09</v>
       </c>
       <c r="K135" t="n">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="L135" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="M135" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -8131,13 +8131,13 @@
         <v>145</v>
       </c>
       <c r="D137" t="n">
-        <v>4.26</v>
+        <v>2.96</v>
       </c>
       <c r="E137" t="n">
-        <v>2.21</v>
+        <v>0.13</v>
       </c>
       <c r="F137" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -8149,16 +8149,16 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2.53</v>
+        <v>1.43</v>
       </c>
       <c r="K137" t="n">
-        <v>0.87</v>
+        <v>0.03</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -8178,13 +8178,13 @@
         <v>238</v>
       </c>
       <c r="D138" t="n">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="E138" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="F138" t="n">
-        <v>1.57</v>
+        <v>0.65</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -8196,16 +8196,16 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="K138" t="n">
-        <v>1.63</v>
+        <v>0.87</v>
       </c>
       <c r="L138" t="n">
-        <v>0.65</v>
+        <v>0.24</v>
       </c>
       <c r="M138" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -8243,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1.61</v>
+        <v>0.94</v>
       </c>
       <c r="K139" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="L139" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -8272,10 +8272,10 @@
         <v>240</v>
       </c>
       <c r="D140" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="E140" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -8290,16 +8290,16 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.37</v>
+        <v>0.78</v>
       </c>
       <c r="K140" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -8319,16 +8319,16 @@
         <v>242</v>
       </c>
       <c r="D141" t="n">
-        <v>1.26</v>
+        <v>0.86</v>
       </c>
       <c r="E141" t="n">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="F141" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8337,16 +8337,16 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="K141" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="L141" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="M141" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -8366,13 +8366,13 @@
         <v>243</v>
       </c>
       <c r="D142" t="n">
-        <v>2.75</v>
+        <v>2.41</v>
       </c>
       <c r="E142" t="n">
-        <v>2.09</v>
+        <v>1.37</v>
       </c>
       <c r="F142" t="n">
-        <v>1.32</v>
+        <v>0.27</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -8384,16 +8384,16 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="K142" t="n">
-        <v>0.76</v>
+        <v>0.29</v>
       </c>
       <c r="L142" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="M142" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -8413,16 +8413,16 @@
         <v>244</v>
       </c>
       <c r="D143" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="E143" t="n">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="F143" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8431,16 +8431,16 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="K143" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -8460,16 +8460,16 @@
         <v>245</v>
       </c>
       <c r="D144" t="n">
-        <v>2.29</v>
+        <v>1.91</v>
       </c>
       <c r="E144" t="n">
-        <v>1.51</v>
+        <v>0.83</v>
       </c>
       <c r="F144" t="n">
-        <v>0.77</v>
+        <v>0.11</v>
       </c>
       <c r="G144" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8478,16 +8478,16 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.24</v>
+        <v>0.84</v>
       </c>
       <c r="K144" t="n">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="L144" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -8507,13 +8507,13 @@
         <v>246</v>
       </c>
       <c r="D145" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="E145" t="n">
-        <v>1.51</v>
+        <v>0.61</v>
       </c>
       <c r="F145" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -8525,16 +8525,16 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1.39</v>
+        <v>0.95</v>
       </c>
       <c r="K145" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="L145" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -8554,13 +8554,13 @@
         <v>247</v>
       </c>
       <c r="D146" t="n">
-        <v>3.46</v>
+        <v>3.15</v>
       </c>
       <c r="E146" t="n">
-        <v>2.72</v>
+        <v>2.06</v>
       </c>
       <c r="F146" t="n">
-        <v>1.86</v>
+        <v>0.81</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -8572,16 +8572,16 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.09</v>
+        <v>0.72</v>
       </c>
       <c r="K146" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="M146" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -8601,16 +8601,16 @@
         <v>249</v>
       </c>
       <c r="D147" t="n">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="E147" t="n">
-        <v>1.62</v>
+        <v>1.16</v>
       </c>
       <c r="F147" t="n">
-        <v>1.08</v>
+        <v>0.56</v>
       </c>
       <c r="G147" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -8619,16 +8619,16 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="L147" t="n">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="M147" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -8648,16 +8648,16 @@
         <v>250</v>
       </c>
       <c r="D148" t="n">
-        <v>1.09</v>
+        <v>0.64</v>
       </c>
       <c r="E148" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="F148" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -8666,16 +8666,16 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.01</v>
+        <v>0.46</v>
       </c>
       <c r="K148" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -8713,16 +8713,16 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.58</v>
+        <v>0.64</v>
       </c>
       <c r="K149" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>252</v>
       </c>
       <c r="D150" t="n">
-        <v>0.82</v>
+        <v>0.18</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -8760,16 +8760,16 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.35</v>
+        <v>0.39</v>
       </c>
       <c r="K150" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -8807,16 +8807,16 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2.13</v>
+        <v>1.06</v>
       </c>
       <c r="K151" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="L151" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1.15</v>
+        <v>0.44</v>
       </c>
       <c r="K152" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -8901,16 +8901,16 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>1.21</v>
+        <v>0.54</v>
       </c>
       <c r="K153" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -8948,16 +8948,16 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>1.61</v>
+        <v>0.87</v>
       </c>
       <c r="K154" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="L154" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M154" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -9004,10 +9004,10 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O155" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>1.45</v>
+        <v>0.47</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -9136,16 +9136,16 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1.32</v>
+        <v>0.58</v>
       </c>
       <c r="K158" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="L158" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -9165,16 +9165,16 @@
         <v>261</v>
       </c>
       <c r="D159" t="n">
-        <v>1.59</v>
+        <v>0.78</v>
       </c>
       <c r="E159" t="n">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="F159" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9183,16 +9183,16 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.31</v>
+        <v>0.57</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -9212,16 +9212,16 @@
         <v>262</v>
       </c>
       <c r="D160" t="n">
-        <v>1.43</v>
+        <v>0.88</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9230,16 +9230,16 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.58</v>
+        <v>0.66</v>
       </c>
       <c r="K160" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -9259,16 +9259,16 @@
         <v>263</v>
       </c>
       <c r="D161" t="n">
-        <v>1.81</v>
+        <v>0.98</v>
       </c>
       <c r="E161" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9277,16 +9277,16 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.96</v>
+        <v>0.38</v>
       </c>
       <c r="K161" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -9324,16 +9324,16 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="K162" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -9371,16 +9371,16 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.25</v>
+        <v>0.46</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>1.8</v>
+        <v>0.53</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -9447,13 +9447,13 @@
         <v>268</v>
       </c>
       <c r="D165" t="n">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="E165" t="n">
-        <v>1.61</v>
+        <v>0.8</v>
       </c>
       <c r="F165" t="n">
-        <v>0.55</v>
+        <v>0.01</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -9465,16 +9465,16 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="K165" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="L165" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.49</v>
+        <v>0.16</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -9541,13 +9541,13 @@
         <v>269</v>
       </c>
       <c r="D167" t="n">
-        <v>3.51</v>
+        <v>3.04</v>
       </c>
       <c r="E167" t="n">
-        <v>1.99</v>
+        <v>0.97</v>
       </c>
       <c r="F167" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -9559,16 +9559,16 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>1.28</v>
+        <v>0.84</v>
       </c>
       <c r="K167" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
@@ -9606,16 +9606,16 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1.38</v>
+        <v>0.85</v>
       </c>
       <c r="K168" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>267</v>
       </c>
       <c r="D169" t="n">
-        <v>2.83</v>
+        <v>2.41</v>
       </c>
       <c r="E169" t="n">
-        <v>1.93</v>
+        <v>1.21</v>
       </c>
       <c r="F169" t="n">
-        <v>1.05</v>
+        <v>0.35</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -9653,16 +9653,16 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>2.02</v>
+        <v>1.58</v>
       </c>
       <c r="K169" t="n">
-        <v>1.05</v>
+        <v>0.49</v>
       </c>
       <c r="L169" t="n">
-        <v>0.38</v>
+        <v>0.06</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -9700,16 +9700,16 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1.09</v>
+        <v>0.61</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L170" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>273</v>
       </c>
       <c r="D171" t="n">
-        <v>1.56</v>
+        <v>0.74</v>
       </c>
       <c r="E171" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="F171" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -9747,16 +9747,16 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1.32</v>
+        <v>0.32</v>
       </c>
       <c r="K171" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
       </c>
       <c r="M171" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N171" t="n">
         <v>0</v>
@@ -9776,16 +9776,16 @@
         <v>274</v>
       </c>
       <c r="D172" t="n">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="E172" t="n">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="F172" t="n">
-        <v>1.91</v>
+        <v>0.96</v>
       </c>
       <c r="G172" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -9794,16 +9794,16 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="K172" t="n">
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
       <c r="L172" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="M172" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
@@ -9823,16 +9823,16 @@
         <v>275</v>
       </c>
       <c r="D173" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="E173" t="n">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
       <c r="F173" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -9841,16 +9841,16 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.14</v>
+        <v>0.55</v>
       </c>
       <c r="K173" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N173" t="n">
         <v>0</v>
@@ -9870,16 +9870,16 @@
         <v>276</v>
       </c>
       <c r="D174" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="E174" t="n">
-        <v>0.93</v>
+        <v>0.35</v>
       </c>
       <c r="F174" t="n">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="G174" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -9888,16 +9888,16 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1.26</v>
+        <v>0.74</v>
       </c>
       <c r="K174" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
@@ -9917,16 +9917,16 @@
         <v>272</v>
       </c>
       <c r="D175" t="n">
-        <v>1.19</v>
+        <v>0.72</v>
       </c>
       <c r="E175" t="n">
-        <v>0.52</v>
+        <v>0.07</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -9935,16 +9935,16 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
       <c r="K175" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N175" t="n">
         <v>0</v>
@@ -9964,13 +9964,13 @@
         <v>277</v>
       </c>
       <c r="D176" t="n">
-        <v>2.29</v>
+        <v>1.9</v>
       </c>
       <c r="E176" t="n">
-        <v>1.33</v>
+        <v>0.81</v>
       </c>
       <c r="F176" t="n">
-        <v>0.77</v>
+        <v>0.21</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -9982,16 +9982,16 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.63</v>
+        <v>1.15</v>
       </c>
       <c r="K176" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="L176" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="M176" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
         <v>0</v>
@@ -10011,16 +10011,16 @@
         <v>278</v>
       </c>
       <c r="D177" t="n">
-        <v>1.68</v>
+        <v>1.19</v>
       </c>
       <c r="E177" t="n">
-        <v>0.71</v>
+        <v>0.15</v>
       </c>
       <c r="F177" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10029,16 +10029,16 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.15</v>
+        <v>0.65</v>
       </c>
       <c r="K177" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="L177" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>280</v>
       </c>
       <c r="D178" t="n">
-        <v>1.01</v>
+        <v>0.32</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10076,16 +10076,16 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.05</v>
+        <v>0.28</v>
       </c>
       <c r="K178" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>0</v>
       </c>
       <c r="M178" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N178" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -10152,7 +10152,7 @@
         <v>282</v>
       </c>
       <c r="D180" t="n">
-        <v>1.51</v>
+        <v>0.76</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -10170,16 +10170,16 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>1.15</v>
+        <v>0.58</v>
       </c>
       <c r="K180" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>0</v>
       </c>
       <c r="M180" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -10199,16 +10199,16 @@
         <v>283</v>
       </c>
       <c r="D181" t="n">
-        <v>4.38</v>
+        <v>3.62</v>
       </c>
       <c r="E181" t="n">
-        <v>2.49</v>
+        <v>1.32</v>
       </c>
       <c r="F181" t="n">
-        <v>0.87</v>
+        <v>0.04</v>
       </c>
       <c r="G181" t="n">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10217,16 +10217,16 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="K181" t="n">
-        <v>0.76</v>
+        <v>0.19</v>
       </c>
       <c r="L181" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>1.15</v>
+        <v>0.07</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
@@ -10293,16 +10293,16 @@
         <v>285</v>
       </c>
       <c r="D183" t="n">
-        <v>2.49</v>
+        <v>1.88</v>
       </c>
       <c r="E183" t="n">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="F183" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="G183" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -10311,16 +10311,16 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>1.63</v>
+        <v>0.91</v>
       </c>
       <c r="K183" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="L183" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N183" t="n">
         <v>0</v>
@@ -10340,16 +10340,16 @@
         <v>286</v>
       </c>
       <c r="D184" t="n">
-        <v>1.72</v>
+        <v>0.93</v>
       </c>
       <c r="E184" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="F184" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>1.33</v>
+        <v>0.76</v>
       </c>
       <c r="K184" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
         <v>0</v>
@@ -10387,16 +10387,16 @@
         <v>287</v>
       </c>
       <c r="D185" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="E185" t="n">
-        <v>0.89</v>
+        <v>0.21</v>
       </c>
       <c r="F185" t="n">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="G185" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10405,16 +10405,16 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.34</v>
+        <v>0.67</v>
       </c>
       <c r="K185" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="L185" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
         <v>0</v>
@@ -10452,16 +10452,16 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1.35</v>
+        <v>0.4</v>
       </c>
       <c r="K186" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -10481,13 +10481,13 @@
         <v>279</v>
       </c>
       <c r="D187" t="n">
-        <v>9.14</v>
+        <v>1.42</v>
       </c>
       <c r="E187" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -10499,16 +10499,16 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>2.68</v>
+        <v>0.53</v>
       </c>
       <c r="K187" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N187" t="n">
         <v>0</v>
